--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hspg2-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hspg2-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>255.961578</v>
+        <v>183.02948</v>
       </c>
       <c r="H2">
-        <v>511.9231559999999</v>
+        <v>366.05896</v>
       </c>
       <c r="I2">
-        <v>0.4306976391465507</v>
+        <v>0.5348320103457603</v>
       </c>
       <c r="J2">
-        <v>0.3553431329241539</v>
+        <v>0.4725198044170354</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.9164455</v>
+        <v>2.401912</v>
       </c>
       <c r="N2">
-        <v>13.832891</v>
+        <v>4.803824000000001</v>
       </c>
       <c r="O2">
-        <v>0.5891123781422892</v>
+        <v>0.4821530750244892</v>
       </c>
       <c r="P2">
-        <v>0.5084626450322738</v>
+        <v>0.4384253964568564</v>
       </c>
       <c r="Q2">
-        <v>1770.344304330999</v>
+        <v>439.62070436576</v>
       </c>
       <c r="R2">
-        <v>7081.377217323995</v>
+        <v>1758.48281746304</v>
       </c>
       <c r="S2">
-        <v>0.253729310457894</v>
+        <v>0.2578708984097378</v>
       </c>
       <c r="T2">
-        <v>0.1806787092606701</v>
+        <v>0.207164682585255</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>255.961578</v>
+        <v>183.02948</v>
       </c>
       <c r="H3">
-        <v>511.9231559999999</v>
+        <v>366.05896</v>
       </c>
       <c r="I3">
-        <v>0.4306976391465507</v>
+        <v>0.5348320103457603</v>
       </c>
       <c r="J3">
-        <v>0.3553431329241539</v>
+        <v>0.4725198044170354</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.802176</v>
       </c>
       <c r="O3">
-        <v>0.07955900504737815</v>
+        <v>0.187500315742878</v>
       </c>
       <c r="P3">
-        <v>0.1030010155365178</v>
+        <v>0.2557431587297719</v>
       </c>
       <c r="Q3">
-        <v>239.083130264576</v>
+        <v>170.9602720494933</v>
       </c>
       <c r="R3">
-        <v>1434.498781587456</v>
+        <v>1025.76163229696</v>
       </c>
       <c r="S3">
-        <v>0.03426587564675428</v>
+        <v>0.1002811708092283</v>
       </c>
       <c r="T3">
-        <v>0.03660070355511569</v>
+        <v>0.1208437073439867</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>255.961578</v>
+        <v>183.02948</v>
       </c>
       <c r="H4">
-        <v>511.9231559999999</v>
+        <v>366.05896</v>
       </c>
       <c r="I4">
-        <v>0.4306976391465507</v>
+        <v>0.5348320103457603</v>
       </c>
       <c r="J4">
-        <v>0.3553431329241539</v>
+        <v>0.4725198044170354</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.03577300000000001</v>
+        <v>0.03707533333333334</v>
       </c>
       <c r="N4">
-        <v>0.107319</v>
+        <v>0.111226</v>
       </c>
       <c r="O4">
-        <v>0.003046986649903353</v>
+        <v>0.007442398378552008</v>
       </c>
       <c r="P4">
-        <v>0.003944779338044275</v>
+        <v>0.01015114274509439</v>
       </c>
       <c r="Q4">
-        <v>9.156513529794001</v>
+        <v>6.785878980826667</v>
       </c>
       <c r="R4">
-        <v>54.939081178764</v>
+        <v>40.71527388496001</v>
       </c>
       <c r="S4">
-        <v>0.001312329956624431</v>
+        <v>0.003980432886594997</v>
       </c>
       <c r="T4">
-        <v>0.001401750248675123</v>
+        <v>0.004796615984521409</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>255.961578</v>
+        <v>183.02948</v>
       </c>
       <c r="H5">
-        <v>511.9231559999999</v>
+        <v>366.05896</v>
       </c>
       <c r="I5">
-        <v>0.4306976391465507</v>
+        <v>0.5348320103457603</v>
       </c>
       <c r="J5">
-        <v>0.3553431329241539</v>
+        <v>0.4725198044170354</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.099586</v>
+        <v>1.5860085</v>
       </c>
       <c r="N5">
-        <v>2.199172</v>
+        <v>3.172017</v>
       </c>
       <c r="O5">
-        <v>0.09365789456910596</v>
+        <v>0.3183708958904312</v>
       </c>
       <c r="P5">
-        <v>0.08083608928899359</v>
+        <v>0.2894970362762849</v>
       </c>
       <c r="Q5">
-        <v>281.451767706708</v>
+        <v>290.28631103058</v>
       </c>
       <c r="R5">
-        <v>1125.807070826832</v>
+        <v>1161.14524412232</v>
       </c>
       <c r="S5">
-        <v>0.04033823407835049</v>
+        <v>0.1702749462846601</v>
       </c>
       <c r="T5">
-        <v>0.02872454922128763</v>
+        <v>0.1367930829605815</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,108 +791,108 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>255.961578</v>
+        <v>183.02948</v>
       </c>
       <c r="H6">
-        <v>511.9231559999999</v>
+        <v>366.05896</v>
       </c>
       <c r="I6">
-        <v>0.4306976391465507</v>
+        <v>0.5348320103457603</v>
       </c>
       <c r="J6">
-        <v>0.3553431329241539</v>
+        <v>0.4725198044170354</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.689952</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N6">
-        <v>8.069856</v>
+        <v>0.06775</v>
       </c>
       <c r="O6">
-        <v>0.2291182688866134</v>
+        <v>0.004533314963649673</v>
       </c>
       <c r="P6">
-        <v>0.2966278218189939</v>
+        <v>0.006183265791992383</v>
       </c>
       <c r="Q6">
-        <v>688.5243586642559</v>
+        <v>4.133415756666666</v>
       </c>
       <c r="R6">
-        <v>4131.146151985536</v>
+        <v>24.80049454</v>
       </c>
       <c r="S6">
-        <v>0.098680697494809</v>
+        <v>0.002424561955539272</v>
       </c>
       <c r="T6">
-        <v>0.105404659517629</v>
+        <v>0.002921715542690786</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>255.961578</v>
+        <v>89.56505566666668</v>
       </c>
       <c r="H7">
-        <v>511.9231559999999</v>
+        <v>268.695167</v>
       </c>
       <c r="I7">
-        <v>0.4306976391465507</v>
+        <v>0.2617188158920261</v>
       </c>
       <c r="J7">
-        <v>0.3553431329241539</v>
+        <v>0.3468397215537155</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.06463666666666668</v>
+        <v>2.401912</v>
       </c>
       <c r="N7">
-        <v>0.19391</v>
+        <v>4.803824000000001</v>
       </c>
       <c r="O7">
-        <v>0.005505466704709875</v>
+        <v>0.4821530750244892</v>
       </c>
       <c r="P7">
-        <v>0.007127648985176579</v>
+        <v>0.4384253964568564</v>
       </c>
       <c r="Q7">
-        <v>16.54450319666</v>
+        <v>215.1273819864347</v>
       </c>
       <c r="R7">
-        <v>99.26701917996</v>
+        <v>1290.764291918608</v>
       </c>
       <c r="S7">
-        <v>0.002371191512118483</v>
+        <v>0.1261885318741085</v>
       </c>
       <c r="T7">
-        <v>0.002532761120776312</v>
+        <v>0.1520633424291734</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>268.695167</v>
       </c>
       <c r="I8">
-        <v>0.1507080020645237</v>
+        <v>0.2617188158920261</v>
       </c>
       <c r="J8">
-        <v>0.1865103801699463</v>
+        <v>0.3468397215537155</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.9164455</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N8">
-        <v>13.832891</v>
+        <v>2.802176</v>
       </c>
       <c r="O8">
-        <v>0.5891123781422892</v>
+        <v>0.187500315742878</v>
       </c>
       <c r="P8">
-        <v>0.5084626450322738</v>
+        <v>0.2557431587297719</v>
       </c>
       <c r="Q8">
-        <v>619.4718262229662</v>
+        <v>83.65901647593246</v>
       </c>
       <c r="R8">
-        <v>3716.830957337797</v>
+        <v>752.9311482833922</v>
       </c>
       <c r="S8">
-        <v>0.08878394950130457</v>
+        <v>0.04907236061560705</v>
       </c>
       <c r="T8">
-        <v>0.09483356122718586</v>
+        <v>0.08870188596310175</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>268.695167</v>
       </c>
       <c r="I9">
-        <v>0.1507080020645237</v>
+        <v>0.2617188158920261</v>
       </c>
       <c r="J9">
-        <v>0.1865103801699463</v>
+        <v>0.3468397215537155</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.9340586666666667</v>
+        <v>0.03707533333333334</v>
       </c>
       <c r="N9">
-        <v>2.802176</v>
+        <v>0.111226</v>
       </c>
       <c r="O9">
-        <v>0.07955900504737815</v>
+        <v>0.007442398378552008</v>
       </c>
       <c r="P9">
-        <v>0.1030010155365178</v>
+        <v>0.01015114274509439</v>
       </c>
       <c r="Q9">
-        <v>83.65901647593246</v>
+        <v>3.320654293860223</v>
       </c>
       <c r="R9">
-        <v>752.9311482833922</v>
+        <v>29.885888644742</v>
       </c>
       <c r="S9">
-        <v>0.01199017869693171</v>
+        <v>0.001947815691031367</v>
       </c>
       <c r="T9">
-        <v>0.01921075856560648</v>
+        <v>0.003520819523160557</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>268.695167</v>
       </c>
       <c r="I10">
-        <v>0.1507080020645237</v>
+        <v>0.2617188158920261</v>
       </c>
       <c r="J10">
-        <v>0.1865103801699463</v>
+        <v>0.3468397215537155</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.03577300000000001</v>
+        <v>1.5860085</v>
       </c>
       <c r="N10">
-        <v>0.107319</v>
+        <v>3.172017</v>
       </c>
       <c r="O10">
-        <v>0.003046986649903353</v>
+        <v>0.3183708958904312</v>
       </c>
       <c r="P10">
-        <v>0.003944779338044275</v>
+        <v>0.2894970362762849</v>
       </c>
       <c r="Q10">
-        <v>3.204010736363668</v>
+        <v>142.0509395903065</v>
       </c>
       <c r="R10">
-        <v>28.836096627273</v>
+        <v>852.305637541839</v>
       </c>
       <c r="S10">
-        <v>0.0004592052703242106</v>
+        <v>0.08332365388692718</v>
       </c>
       <c r="T10">
-        <v>0.000735742294025187</v>
+        <v>0.1004090714526925</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>268.695167</v>
       </c>
       <c r="I11">
-        <v>0.1507080020645237</v>
+        <v>0.2617188158920261</v>
       </c>
       <c r="J11">
-        <v>0.1865103801699463</v>
+        <v>0.3468397215537155</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>1.099586</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N11">
-        <v>2.199172</v>
+        <v>0.06775</v>
       </c>
       <c r="O11">
-        <v>0.09365789456910596</v>
+        <v>0.004533314963649673</v>
       </c>
       <c r="P11">
-        <v>0.08083608928899359</v>
+        <v>0.006183265791992383</v>
       </c>
       <c r="Q11">
-        <v>98.48448130028737</v>
+        <v>2.022677507138889</v>
       </c>
       <c r="R11">
-        <v>590.9068878017241</v>
+        <v>18.20409756425</v>
       </c>
       <c r="S11">
-        <v>0.01411499416807976</v>
+        <v>0.001186453824351996</v>
       </c>
       <c r="T11">
-        <v>0.01507676974474192</v>
+        <v>0.002144602185587252</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,61 +1163,61 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>89.56505566666668</v>
+        <v>0.1217483333333333</v>
       </c>
       <c r="H12">
-        <v>268.695167</v>
+        <v>0.365245</v>
       </c>
       <c r="I12">
-        <v>0.1507080020645237</v>
+        <v>0.0003557618470691848</v>
       </c>
       <c r="J12">
-        <v>0.1865103801699463</v>
+        <v>0.0004714691206146139</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.689952</v>
+        <v>2.401912</v>
       </c>
       <c r="N12">
-        <v>8.069856</v>
+        <v>4.803824000000001</v>
       </c>
       <c r="O12">
-        <v>0.2291182688866134</v>
+        <v>0.4821530750244892</v>
       </c>
       <c r="P12">
-        <v>0.2966278218189939</v>
+        <v>0.4384253964568564</v>
       </c>
       <c r="Q12">
-        <v>240.9257006206614</v>
+        <v>0.2924287828133334</v>
       </c>
       <c r="R12">
-        <v>2168.331305585952</v>
+        <v>1.75457269688</v>
       </c>
       <c r="S12">
-        <v>0.03452995654038382</v>
+        <v>0.0001715316685407995</v>
       </c>
       <c r="T12">
-        <v>0.05532416781644366</v>
+        <v>0.0002067040361226275</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>89.56505566666668</v>
+        <v>0.1217483333333333</v>
       </c>
       <c r="H13">
-        <v>268.695167</v>
+        <v>0.365245</v>
       </c>
       <c r="I13">
-        <v>0.1507080020645237</v>
+        <v>0.0003557618470691848</v>
       </c>
       <c r="J13">
-        <v>0.1865103801699463</v>
+        <v>0.0004714691206146139</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.06463666666666668</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N13">
-        <v>0.19391</v>
+        <v>2.802176</v>
       </c>
       <c r="O13">
-        <v>0.005505466704709875</v>
+        <v>0.187500315742878</v>
       </c>
       <c r="P13">
-        <v>0.007127648985176579</v>
+        <v>0.2557431587297719</v>
       </c>
       <c r="Q13">
-        <v>5.78918664810778</v>
+        <v>0.1137200859022222</v>
       </c>
       <c r="R13">
-        <v>52.10267983297001</v>
+        <v>1.02348077312</v>
       </c>
       <c r="S13">
-        <v>0.0008297178874995822</v>
+        <v>6.670545865474162E-05</v>
       </c>
       <c r="T13">
-        <v>0.001329380521943216</v>
+        <v>0.0001205750021495292</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1344533333333333</v>
+        <v>0.1217483333333333</v>
       </c>
       <c r="H14">
-        <v>0.4033599999999999</v>
+        <v>0.365245</v>
       </c>
       <c r="I14">
-        <v>0.0002262399446609557</v>
+        <v>0.0003557618470691848</v>
       </c>
       <c r="J14">
-        <v>0.0002799857838356636</v>
+        <v>0.0004714691206146139</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>6.9164455</v>
+        <v>0.03707533333333334</v>
       </c>
       <c r="N14">
-        <v>13.832891</v>
+        <v>0.111226</v>
       </c>
       <c r="O14">
-        <v>0.5891123781422892</v>
+        <v>0.007442398378552008</v>
       </c>
       <c r="P14">
-        <v>0.5084626450322738</v>
+        <v>0.01015114274509439</v>
       </c>
       <c r="Q14">
-        <v>0.9299391522933332</v>
+        <v>0.004513860041111112</v>
       </c>
       <c r="R14">
-        <v>5.579634913759999</v>
+        <v>0.04062474037000001</v>
       </c>
       <c r="S14">
-        <v>0.0001332807518299955</v>
+        <v>2.647721393778368E-06</v>
       </c>
       <c r="T14">
-        <v>0.000142362312220516</v>
+        <v>4.785950343263069E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1344533333333333</v>
+        <v>0.1217483333333333</v>
       </c>
       <c r="H15">
-        <v>0.4033599999999999</v>
+        <v>0.365245</v>
       </c>
       <c r="I15">
-        <v>0.0002262399446609557</v>
+        <v>0.0003557618470691848</v>
       </c>
       <c r="J15">
-        <v>0.0002799857838356636</v>
+        <v>0.0004714691206146139</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.9340586666666667</v>
+        <v>1.5860085</v>
       </c>
       <c r="N15">
-        <v>2.802176</v>
+        <v>3.172017</v>
       </c>
       <c r="O15">
-        <v>0.07955900504737815</v>
+        <v>0.3183708958904312</v>
       </c>
       <c r="P15">
-        <v>0.1030010155365178</v>
+        <v>0.2894970362762849</v>
       </c>
       <c r="Q15">
-        <v>0.1255873012622222</v>
+        <v>0.1930938915275</v>
       </c>
       <c r="R15">
-        <v>1.13028571136</v>
+        <v>1.158563349165</v>
       </c>
       <c r="S15">
-        <v>1.799942489919953E-05</v>
+        <v>0.0001132642179750509</v>
       </c>
       <c r="T15">
-        <v>2.88388200708613E-05</v>
+        <v>0.000136488913113717</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1344533333333333</v>
+        <v>0.1217483333333333</v>
       </c>
       <c r="H16">
-        <v>0.4033599999999999</v>
+        <v>0.365245</v>
       </c>
       <c r="I16">
-        <v>0.0002262399446609557</v>
+        <v>0.0003557618470691848</v>
       </c>
       <c r="J16">
-        <v>0.0002799857838356636</v>
+        <v>0.0004714691206146139</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,33 +1429,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.03577300000000001</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N16">
-        <v>0.107319</v>
+        <v>0.06775</v>
       </c>
       <c r="O16">
-        <v>0.003046986649903353</v>
+        <v>0.004533314963649673</v>
       </c>
       <c r="P16">
-        <v>0.003944779338044275</v>
+        <v>0.006183265791992383</v>
       </c>
       <c r="Q16">
-        <v>0.004809799093333333</v>
+        <v>0.002749483194444445</v>
       </c>
       <c r="R16">
-        <v>0.04328819184</v>
+        <v>0.02474534875</v>
       </c>
       <c r="S16">
-        <v>6.893500910568052E-07</v>
+        <v>1.612780504814382E-06</v>
       </c>
       <c r="T16">
-        <v>1.104482135021057E-06</v>
+        <v>2.915218885477073E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,25 +1464,25 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1344533333333333</v>
+        <v>68.93093500000001</v>
       </c>
       <c r="H17">
-        <v>0.4033599999999999</v>
+        <v>137.86187</v>
       </c>
       <c r="I17">
-        <v>0.0002262399446609557</v>
+        <v>0.2014236752520028</v>
       </c>
       <c r="J17">
-        <v>0.0002799857838356636</v>
+        <v>0.1779562064235957</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.099586</v>
+        <v>2.401912</v>
       </c>
       <c r="N17">
-        <v>2.199172</v>
+        <v>4.803824000000001</v>
       </c>
       <c r="O17">
-        <v>0.09365789456910596</v>
+        <v>0.4821530750244892</v>
       </c>
       <c r="P17">
-        <v>0.08083608928899359</v>
+        <v>0.4384253964568564</v>
       </c>
       <c r="Q17">
-        <v>0.1478430029866667</v>
+        <v>165.56603994772</v>
       </c>
       <c r="R17">
-        <v>0.8870580179200001</v>
+        <v>662.2641597908802</v>
       </c>
       <c r="S17">
-        <v>2.118915688437615E-05</v>
+        <v>0.09711704440548724</v>
       </c>
       <c r="T17">
-        <v>2.263295582178857E-05</v>
+        <v>0.07802052035322311</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,25 +1526,25 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1344533333333333</v>
+        <v>68.93093500000001</v>
       </c>
       <c r="H18">
-        <v>0.4033599999999999</v>
+        <v>137.86187</v>
       </c>
       <c r="I18">
-        <v>0.0002262399446609557</v>
+        <v>0.2014236752520028</v>
       </c>
       <c r="J18">
-        <v>0.0002799857838356636</v>
+        <v>0.1779562064235957</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,90 +1553,90 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.689952</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N18">
-        <v>8.069856</v>
+        <v>2.802176</v>
       </c>
       <c r="O18">
-        <v>0.2291182688866134</v>
+        <v>0.187500315742878</v>
       </c>
       <c r="P18">
-        <v>0.2966278218189939</v>
+        <v>0.2557431587297719</v>
       </c>
       <c r="Q18">
-        <v>0.3616730129066666</v>
+        <v>64.38553723818667</v>
       </c>
       <c r="R18">
-        <v>3.255057116159999</v>
+        <v>386.3132234291201</v>
       </c>
       <c r="S18">
-        <v>5.183570447372138E-05</v>
+        <v>0.03776700270784145</v>
       </c>
       <c r="T18">
-        <v>8.30515731994566E-05</v>
+        <v>0.0455110823463377</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1344533333333333</v>
+        <v>68.93093500000001</v>
       </c>
       <c r="H19">
-        <v>0.4033599999999999</v>
+        <v>137.86187</v>
       </c>
       <c r="I19">
-        <v>0.0002262399446609557</v>
+        <v>0.2014236752520028</v>
       </c>
       <c r="J19">
-        <v>0.0002799857838356636</v>
+        <v>0.1779562064235957</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.06463666666666668</v>
+        <v>0.03707533333333334</v>
       </c>
       <c r="N19">
-        <v>0.19391</v>
+        <v>0.111226</v>
       </c>
       <c r="O19">
-        <v>0.005505466704709875</v>
+        <v>0.007442398378552008</v>
       </c>
       <c r="P19">
-        <v>0.007127648985176579</v>
+        <v>0.01015114274509439</v>
       </c>
       <c r="Q19">
-        <v>0.008690615288888889</v>
+        <v>2.555637392103334</v>
       </c>
       <c r="R19">
-        <v>0.0782155376</v>
+        <v>15.33382435262</v>
       </c>
       <c r="S19">
-        <v>1.245556482606296E-06</v>
+        <v>0.001499075234097492</v>
       </c>
       <c r="T19">
-        <v>1.995640388020137E-06</v>
+        <v>0.001806458853781403</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>86.27971649999999</v>
+        <v>68.93093500000001</v>
       </c>
       <c r="H20">
-        <v>172.559433</v>
+        <v>137.86187</v>
       </c>
       <c r="I20">
-        <v>0.1451798761874475</v>
+        <v>0.2014236752520028</v>
       </c>
       <c r="J20">
-        <v>0.1197793239457127</v>
+        <v>0.1779562064235957</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.9164455</v>
+        <v>1.5860085</v>
       </c>
       <c r="N20">
-        <v>13.832891</v>
+        <v>3.172017</v>
       </c>
       <c r="O20">
-        <v>0.5891123781422892</v>
+        <v>0.3183708958904312</v>
       </c>
       <c r="P20">
-        <v>0.5084626450322738</v>
+        <v>0.2894970362762849</v>
       </c>
       <c r="Q20">
-        <v>596.7489569277006</v>
+        <v>109.3250488229475</v>
       </c>
       <c r="R20">
-        <v>2386.995827710803</v>
+        <v>437.30019529179</v>
       </c>
       <c r="S20">
-        <v>0.08552726211919033</v>
+        <v>0.06412743594352341</v>
       </c>
       <c r="T20">
-        <v>0.06090331187361466</v>
+        <v>0.05151779434660172</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>86.27971649999999</v>
+        <v>68.93093500000001</v>
       </c>
       <c r="H21">
-        <v>172.559433</v>
+        <v>137.86187</v>
       </c>
       <c r="I21">
-        <v>0.1451798761874475</v>
+        <v>0.2014236752520028</v>
       </c>
       <c r="J21">
-        <v>0.1197793239457127</v>
+        <v>0.1779562064235957</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.9340586666666667</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N21">
-        <v>2.802176</v>
+        <v>0.06775</v>
       </c>
       <c r="O21">
-        <v>0.07955900504737815</v>
+        <v>0.004533314963649673</v>
       </c>
       <c r="P21">
-        <v>0.1030010155365178</v>
+        <v>0.006183265791992383</v>
       </c>
       <c r="Q21">
-        <v>80.59031695436799</v>
+        <v>1.556690282083333</v>
       </c>
       <c r="R21">
-        <v>483.541901726208</v>
+        <v>9.340141692500001</v>
       </c>
       <c r="S21">
-        <v>0.01155036650237487</v>
+        <v>0.0009131169610532166</v>
       </c>
       <c r="T21">
-        <v>0.01233739200668595</v>
+        <v>0.001100350523651754</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.4724063333333333</v>
+      </c>
+      <c r="H22">
+        <v>1.417219</v>
+      </c>
+      <c r="I22">
+        <v>0.001380422590703618</v>
+      </c>
+      <c r="J22">
+        <v>0.001829388480741207</v>
+      </c>
+      <c r="K22">
         <v>2</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>86.27971649999999</v>
-      </c>
-      <c r="H22">
-        <v>172.559433</v>
-      </c>
-      <c r="I22">
-        <v>0.1451798761874475</v>
-      </c>
-      <c r="J22">
-        <v>0.1197793239457127</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.03577300000000001</v>
+        <v>2.401912</v>
       </c>
       <c r="N22">
-        <v>0.107319</v>
+        <v>4.803824000000001</v>
       </c>
       <c r="O22">
-        <v>0.003046986649903353</v>
+        <v>0.4821530750244892</v>
       </c>
       <c r="P22">
-        <v>0.003944779338044275</v>
+        <v>0.4384253964568564</v>
       </c>
       <c r="Q22">
-        <v>3.0864842983545</v>
+        <v>1.134678440909333</v>
       </c>
       <c r="R22">
-        <v>18.518905790127</v>
+        <v>6.808070645456</v>
       </c>
       <c r="S22">
-        <v>0.0004423611445777743</v>
+        <v>0.0006655749969410212</v>
       </c>
       <c r="T22">
-        <v>0.0004725030022259594</v>
+        <v>0.0008020503699425701</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>86.27971649999999</v>
+        <v>0.4724063333333333</v>
       </c>
       <c r="H23">
-        <v>172.559433</v>
+        <v>1.417219</v>
       </c>
       <c r="I23">
-        <v>0.1451798761874475</v>
+        <v>0.001380422590703618</v>
       </c>
       <c r="J23">
-        <v>0.1197793239457127</v>
+        <v>0.001829388480741207</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.099586</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N23">
-        <v>2.199172</v>
+        <v>2.802176</v>
       </c>
       <c r="O23">
-        <v>0.09365789456910596</v>
+        <v>0.187500315742878</v>
       </c>
       <c r="P23">
-        <v>0.08083608928899359</v>
+        <v>0.2557431587297719</v>
       </c>
       <c r="Q23">
-        <v>94.87196834736901</v>
+        <v>0.4412552298382222</v>
       </c>
       <c r="R23">
-        <v>379.487873389476</v>
+        <v>3.971297068544001</v>
       </c>
       <c r="S23">
-        <v>0.01359724153751982</v>
+        <v>0.00025882967161553</v>
       </c>
       <c r="T23">
-        <v>0.009682492125450921</v>
+        <v>0.0004678535886086149</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,117 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>86.27971649999999</v>
+        <v>0.4724063333333333</v>
       </c>
       <c r="H24">
-        <v>172.559433</v>
+        <v>1.417219</v>
       </c>
       <c r="I24">
-        <v>0.1451798761874475</v>
+        <v>0.001380422590703618</v>
       </c>
       <c r="J24">
-        <v>0.1197793239457127</v>
+        <v>0.001829388480741207</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>2.689952</v>
+        <v>0.03707533333333334</v>
       </c>
       <c r="N24">
-        <v>8.069856</v>
+        <v>0.111226</v>
       </c>
       <c r="O24">
-        <v>0.2291182688866134</v>
+        <v>0.007442398378552008</v>
       </c>
       <c r="P24">
-        <v>0.2966278218189939</v>
+        <v>0.01015114274509439</v>
       </c>
       <c r="Q24">
-        <v>232.088295958608</v>
+        <v>0.01751462227711111</v>
       </c>
       <c r="R24">
-        <v>1392.529775751648</v>
+        <v>0.157631600494</v>
       </c>
       <c r="S24">
-        <v>0.03326336190924085</v>
+        <v>1.027365485076917E-05</v>
       </c>
       <c r="T24">
-        <v>0.03552987996096843</v>
+        <v>1.857038360423536E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>86.27971649999999</v>
+        <v>0.4724063333333333</v>
       </c>
       <c r="H25">
-        <v>172.559433</v>
+        <v>1.417219</v>
       </c>
       <c r="I25">
-        <v>0.1451798761874475</v>
+        <v>0.001380422590703618</v>
       </c>
       <c r="J25">
-        <v>0.1197793239457127</v>
+        <v>0.001829388480741207</v>
       </c>
       <c r="K25">
         <v>2</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.06463666666666668</v>
+        <v>1.5860085</v>
       </c>
       <c r="N25">
-        <v>0.19391</v>
+        <v>3.172017</v>
       </c>
       <c r="O25">
-        <v>0.005505466704709875</v>
+        <v>0.3183708958904312</v>
       </c>
       <c r="P25">
-        <v>0.007127648985176579</v>
+        <v>0.2894970362762849</v>
       </c>
       <c r="Q25">
-        <v>5.576833275505</v>
+        <v>0.7492404601204999</v>
       </c>
       <c r="R25">
-        <v>33.46099965303</v>
+        <v>4.495442760723</v>
       </c>
       <c r="S25">
-        <v>0.0007992829745438945</v>
+        <v>0.0004394863769097009</v>
       </c>
       <c r="T25">
-        <v>0.0008537449767667959</v>
+        <v>0.000529602543372555</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>162.0686236666667</v>
+        <v>0.4724063333333333</v>
       </c>
       <c r="H26">
-        <v>486.205871</v>
+        <v>1.417219</v>
       </c>
       <c r="I26">
-        <v>0.2727072326181867</v>
+        <v>0.001380422590703618</v>
       </c>
       <c r="J26">
-        <v>0.3374918978020542</v>
+        <v>0.001829388480741207</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>6.9164455</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N26">
-        <v>13.832891</v>
+        <v>0.06775</v>
       </c>
       <c r="O26">
-        <v>0.5891123781422892</v>
+        <v>0.004533314963649673</v>
       </c>
       <c r="P26">
-        <v>0.5084626450322738</v>
+        <v>0.006183265791992383</v>
       </c>
       <c r="Q26">
-        <v>1120.93880285051</v>
+        <v>0.01066850969444444</v>
       </c>
       <c r="R26">
-        <v>6725.632817103061</v>
+        <v>0.09601658725000001</v>
       </c>
       <c r="S26">
-        <v>0.1606552063443024</v>
+        <v>6.25789038659676E-06</v>
       </c>
       <c r="T26">
-        <v>0.1716020230333943</v>
+        <v>1.131159521323202E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>162.0686236666667</v>
+        <v>0.09900866666666668</v>
       </c>
       <c r="H27">
-        <v>486.205871</v>
+        <v>0.297026</v>
       </c>
       <c r="I27">
-        <v>0.2727072326181867</v>
+        <v>0.0002893140724378751</v>
       </c>
       <c r="J27">
-        <v>0.3374918978020542</v>
+        <v>0.0003834100042975983</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.9340586666666667</v>
+        <v>2.401912</v>
       </c>
       <c r="N27">
-        <v>2.802176</v>
+        <v>4.803824000000001</v>
       </c>
       <c r="O27">
-        <v>0.07955900504737815</v>
+        <v>0.4821530750244892</v>
       </c>
       <c r="P27">
-        <v>0.1030010155365178</v>
+        <v>0.4384253964568564</v>
       </c>
       <c r="Q27">
-        <v>151.3816025305885</v>
+        <v>0.2378101045706667</v>
       </c>
       <c r="R27">
-        <v>1362.434422775296</v>
+        <v>1.426860627424</v>
       </c>
       <c r="S27">
-        <v>0.02169631609632684</v>
+        <v>0.0001394936696737793</v>
       </c>
       <c r="T27">
-        <v>0.03476200820895826</v>
+        <v>0.0001680966831396996</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>162.0686236666667</v>
+        <v>0.09900866666666668</v>
       </c>
       <c r="H28">
-        <v>486.205871</v>
+        <v>0.297026</v>
       </c>
       <c r="I28">
-        <v>0.2727072326181867</v>
+        <v>0.0002893140724378751</v>
       </c>
       <c r="J28">
-        <v>0.3374918978020542</v>
+        <v>0.0003834100042975983</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.03577300000000001</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N28">
-        <v>0.107319</v>
+        <v>2.802176</v>
       </c>
       <c r="O28">
-        <v>0.003046986649903353</v>
+        <v>0.187500315742878</v>
       </c>
       <c r="P28">
-        <v>0.003944779338044275</v>
+        <v>0.2557431587297719</v>
       </c>
       <c r="Q28">
-        <v>5.797680874427668</v>
+        <v>0.09247990317511112</v>
       </c>
       <c r="R28">
-        <v>52.179127869849</v>
+        <v>0.8323191285760001</v>
       </c>
       <c r="S28">
-        <v>0.000830935297119703</v>
+        <v>5.424647993095946E-05</v>
       </c>
       <c r="T28">
-        <v>0.001331331065206893</v>
+        <v>9.805448558766323E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,51 +2217,51 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>162.0686236666667</v>
+        <v>0.09900866666666668</v>
       </c>
       <c r="H29">
-        <v>486.205871</v>
+        <v>0.297026</v>
       </c>
       <c r="I29">
-        <v>0.2727072326181867</v>
+        <v>0.0002893140724378751</v>
       </c>
       <c r="J29">
-        <v>0.3374918978020542</v>
+        <v>0.0003834100042975983</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>1.099586</v>
+        <v>0.03707533333333334</v>
       </c>
       <c r="N29">
-        <v>2.199172</v>
+        <v>0.111226</v>
       </c>
       <c r="O29">
-        <v>0.09365789456910596</v>
+        <v>0.007442398378552008</v>
       </c>
       <c r="P29">
-        <v>0.08083608928899359</v>
+        <v>0.01015114274509439</v>
       </c>
       <c r="Q29">
-        <v>178.2083896231354</v>
+        <v>0.003670779319555556</v>
       </c>
       <c r="R29">
-        <v>1069.250337738812</v>
+        <v>0.03303701387600001</v>
       </c>
       <c r="S29">
-        <v>0.02554118524078678</v>
+        <v>2.153190583603919E-06</v>
       </c>
       <c r="T29">
-        <v>0.02728152518503875</v>
+        <v>3.892049683522173E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,51 +2279,51 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>162.0686236666667</v>
+        <v>0.09900866666666668</v>
       </c>
       <c r="H30">
-        <v>486.205871</v>
+        <v>0.297026</v>
       </c>
       <c r="I30">
-        <v>0.2727072326181867</v>
+        <v>0.0002893140724378751</v>
       </c>
       <c r="J30">
-        <v>0.3374918978020542</v>
+        <v>0.0003834100042975983</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.689952</v>
+        <v>1.5860085</v>
       </c>
       <c r="N30">
-        <v>8.069856</v>
+        <v>3.172017</v>
       </c>
       <c r="O30">
-        <v>0.2291182688866134</v>
+        <v>0.3183708958904312</v>
       </c>
       <c r="P30">
-        <v>0.2966278218189939</v>
+        <v>0.2894970362762849</v>
       </c>
       <c r="Q30">
-        <v>435.9568183693973</v>
+        <v>0.157028586907</v>
       </c>
       <c r="R30">
-        <v>3923.611365324576</v>
+        <v>0.942171521442</v>
       </c>
       <c r="S30">
-        <v>0.06248220905033793</v>
+        <v>9.21091804357554E-05</v>
       </c>
       <c r="T30">
-        <v>0.1001094865265818</v>
+        <v>0.0001109960599228324</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,418 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>162.0686236666667</v>
+        <v>0.09900866666666668</v>
       </c>
       <c r="H31">
-        <v>486.205871</v>
+        <v>0.297026</v>
       </c>
       <c r="I31">
-        <v>0.2727072326181867</v>
+        <v>0.0002893140724378751</v>
       </c>
       <c r="J31">
-        <v>0.3374918978020542</v>
+        <v>0.0003834100042975983</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.06463666666666668</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N31">
-        <v>0.19391</v>
+        <v>0.06775</v>
       </c>
       <c r="O31">
-        <v>0.005505466704709875</v>
+        <v>0.004533314963649673</v>
       </c>
       <c r="P31">
-        <v>0.007127648985176579</v>
+        <v>0.006183265791992383</v>
       </c>
       <c r="Q31">
-        <v>10.47557560506778</v>
+        <v>0.002235945722222223</v>
       </c>
       <c r="R31">
-        <v>94.28018044561001</v>
+        <v>0.0201235115</v>
       </c>
       <c r="S31">
-        <v>0.001501380589312998</v>
+        <v>1.311551813777045E-06</v>
       </c>
       <c r="T31">
-        <v>0.002405523782874129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.285862</v>
-      </c>
-      <c r="H32">
-        <v>0.857586</v>
-      </c>
-      <c r="I32">
-        <v>0.0004810100386305295</v>
-      </c>
-      <c r="J32">
-        <v>0.0005952793742971327</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>6.9164455</v>
-      </c>
-      <c r="N32">
-        <v>13.832891</v>
-      </c>
-      <c r="O32">
-        <v>0.5891123781422892</v>
-      </c>
-      <c r="P32">
-        <v>0.5084626450322738</v>
-      </c>
-      <c r="Q32">
-        <v>1.977148943521</v>
-      </c>
-      <c r="R32">
-        <v>11.862893661126</v>
-      </c>
-      <c r="S32">
-        <v>0.0002833689677679456</v>
-      </c>
-      <c r="T32">
-        <v>0.000302677325188277</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.285862</v>
-      </c>
-      <c r="H33">
-        <v>0.857586</v>
-      </c>
-      <c r="I33">
-        <v>0.0004810100386305295</v>
-      </c>
-      <c r="J33">
-        <v>0.0005952793742971327</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>0.9340586666666667</v>
-      </c>
-      <c r="N33">
-        <v>2.802176</v>
-      </c>
-      <c r="O33">
-        <v>0.07955900504737815</v>
-      </c>
-      <c r="P33">
-        <v>0.1030010155365178</v>
-      </c>
-      <c r="Q33">
-        <v>0.2670118785706667</v>
-      </c>
-      <c r="R33">
-        <v>2.403106907136</v>
-      </c>
-      <c r="S33">
-        <v>3.826868009124585E-05</v>
-      </c>
-      <c r="T33">
-        <v>6.131438008054755E-05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.285862</v>
-      </c>
-      <c r="H34">
-        <v>0.857586</v>
-      </c>
-      <c r="I34">
-        <v>0.0004810100386305295</v>
-      </c>
-      <c r="J34">
-        <v>0.0005952793742971327</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M34">
-        <v>0.03577300000000001</v>
-      </c>
-      <c r="N34">
-        <v>0.107319</v>
-      </c>
-      <c r="O34">
-        <v>0.003046986649903353</v>
-      </c>
-      <c r="P34">
-        <v>0.003944779338044275</v>
-      </c>
-      <c r="Q34">
-        <v>0.010226141326</v>
-      </c>
-      <c r="R34">
-        <v>0.092035271934</v>
-      </c>
-      <c r="S34">
-        <v>1.465631166176719E-06</v>
-      </c>
-      <c r="T34">
-        <v>2.348245776091253E-06</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.285862</v>
-      </c>
-      <c r="H35">
-        <v>0.857586</v>
-      </c>
-      <c r="I35">
-        <v>0.0004810100386305295</v>
-      </c>
-      <c r="J35">
-        <v>0.0005952793742971327</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1.099586</v>
-      </c>
-      <c r="N35">
-        <v>2.199172</v>
-      </c>
-      <c r="O35">
-        <v>0.09365789456910596</v>
-      </c>
-      <c r="P35">
-        <v>0.08083608928899359</v>
-      </c>
-      <c r="Q35">
-        <v>0.3143298531320001</v>
-      </c>
-      <c r="R35">
-        <v>1.885979118792</v>
-      </c>
-      <c r="S35">
-        <v>4.505038748473971E-05</v>
-      </c>
-      <c r="T35">
-        <v>4.812005665257925E-05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.285862</v>
-      </c>
-      <c r="H36">
-        <v>0.857586</v>
-      </c>
-      <c r="I36">
-        <v>0.0004810100386305295</v>
-      </c>
-      <c r="J36">
-        <v>0.0005952793742971327</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>2.689952</v>
-      </c>
-      <c r="N36">
-        <v>8.069856</v>
-      </c>
-      <c r="O36">
-        <v>0.2291182688866134</v>
-      </c>
-      <c r="P36">
-        <v>0.2966278218189939</v>
-      </c>
-      <c r="Q36">
-        <v>0.7689550586239999</v>
-      </c>
-      <c r="R36">
-        <v>6.920595527615999</v>
-      </c>
-      <c r="S36">
-        <v>0.00011020818736811</v>
-      </c>
-      <c r="T36">
-        <v>0.0001765764241715321</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.285862</v>
-      </c>
-      <c r="H37">
-        <v>0.857586</v>
-      </c>
-      <c r="I37">
-        <v>0.0004810100386305295</v>
-      </c>
-      <c r="J37">
-        <v>0.0005952793742971327</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M37">
-        <v>0.06463666666666668</v>
-      </c>
-      <c r="N37">
-        <v>0.19391</v>
-      </c>
-      <c r="O37">
-        <v>0.005505466704709875</v>
-      </c>
-      <c r="P37">
-        <v>0.007127648985176579</v>
-      </c>
-      <c r="Q37">
-        <v>0.01847716680666667</v>
-      </c>
-      <c r="R37">
-        <v>0.16629450126</v>
-      </c>
-      <c r="S37">
-        <v>2.648184752311591E-06</v>
-      </c>
-      <c r="T37">
-        <v>4.242942428105506E-06</v>
+        <v>2.370725963880992E-06</v>
       </c>
     </row>
   </sheetData>
